--- a/grupos/6ARHM - Estadisticos 20202.xlsx
+++ b/grupos/6ARHM - Estadisticos 20202.xlsx
@@ -2313,7 +2313,7 @@
         <v>5</v>
       </c>
       <c r="N21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O21">
         <v>5</v>

--- a/grupos/6ARHM - Estadisticos 20202.xlsx
+++ b/grupos/6ARHM - Estadisticos 20202.xlsx
@@ -2322,7 +2322,7 @@
         <v>5</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R21">
         <v>5</v>
@@ -2861,7 +2861,7 @@
         <v>-1</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R28">
         <v>-1</v>

--- a/grupos/6ARHM - Estadisticos 20202.xlsx
+++ b/grupos/6ARHM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="154">
   <si>
     <t>Materia</t>
   </si>
@@ -215,247 +215,247 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ALDAZABA</t>
+  </si>
+  <si>
+    <t>ARANA</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>AVENDAÑO</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>COCOTLE</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>LADINO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>LOBATO</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>MOLINA</t>
+  </si>
+  <si>
     <t>NEPOMUCENO</t>
   </si>
   <si>
+    <t>NIETO</t>
+  </si>
+  <si>
+    <t>OROZCO</t>
+  </si>
+  <si>
+    <t>QUERO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>XICALHUA</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>VALLEJO</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>PALACIOS</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>SESMA</t>
+  </si>
+  <si>
+    <t>CARVAJAL</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>URBINA</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
     <t>PANZO</t>
   </si>
   <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>ENCARNACION</t>
+  </si>
+  <si>
     <t>ALAMILLO</t>
   </si>
   <si>
+    <t>MONSTRANZO</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>ZACARIAS</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
+    <t>INGRID YOSELIN</t>
+  </si>
+  <si>
+    <t>ABIRAM</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>LAUDY VANESSA</t>
+  </si>
+  <si>
+    <t>LINDA MICHELLE</t>
+  </si>
+  <si>
+    <t>LIZETH</t>
+  </si>
+  <si>
+    <t>DIANA LAURA</t>
+  </si>
+  <si>
+    <t>VIVIANA</t>
+  </si>
+  <si>
+    <t>FLOR LIZZETH</t>
+  </si>
+  <si>
+    <t>LISBET</t>
+  </si>
+  <si>
+    <t>DULCE MARIA</t>
+  </si>
+  <si>
+    <t>YAZMIN</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>SEHANI</t>
+  </si>
+  <si>
+    <t>MARIBEL</t>
+  </si>
+  <si>
+    <t>ANGEL DE JESUS</t>
+  </si>
+  <si>
+    <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>ARELI</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
     <t>JAIRO NEMESIO</t>
   </si>
   <si>
+    <t>REBECA MELISA</t>
+  </si>
+  <si>
+    <t>JUAN DANIEL</t>
+  </si>
+  <si>
     <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>ALDAZABA</t>
-  </si>
-  <si>
-    <t>ARANA</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>AVENDAÑO</t>
-  </si>
-  <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>COCOTLE</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>LADINO</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>LOBATO</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>MOLINA</t>
-  </si>
-  <si>
-    <t>NIETO</t>
-  </si>
-  <si>
-    <t>OROZCO</t>
-  </si>
-  <si>
-    <t>QUERO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>XICALHUA</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
-    <t>VALLEJO</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>PALACIOS</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>SESMA</t>
-  </si>
-  <si>
-    <t>CARVAJAL</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>CASTAÑEDA</t>
-  </si>
-  <si>
-    <t>URBINA</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>ENCARNACION</t>
-  </si>
-  <si>
-    <t>MONSTRANZO</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>ZACARIAS</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>INGRID YOSELIN</t>
-  </si>
-  <si>
-    <t>ABIRAM</t>
-  </si>
-  <si>
-    <t>XIMENA</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>LAUDY VANESSA</t>
-  </si>
-  <si>
-    <t>LINDA MICHELLE</t>
-  </si>
-  <si>
-    <t>LIZETH</t>
-  </si>
-  <si>
-    <t>DIANA LAURA</t>
-  </si>
-  <si>
-    <t>VIVIANA</t>
-  </si>
-  <si>
-    <t>FLOR LIZZETH</t>
-  </si>
-  <si>
-    <t>LISBET</t>
-  </si>
-  <si>
-    <t>DULCE MARIA</t>
-  </si>
-  <si>
-    <t>YAZMIN</t>
-  </si>
-  <si>
-    <t>MARIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>SEHANI</t>
-  </si>
-  <si>
-    <t>MARIBEL</t>
-  </si>
-  <si>
-    <t>ANGEL DE JESUS</t>
-  </si>
-  <si>
-    <t>MIGUEL</t>
-  </si>
-  <si>
-    <t>ARELI</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>REBECA MELISA</t>
-  </si>
-  <si>
-    <t>JUAN DANIEL</t>
   </si>
   <si>
     <t>LOURDES</t>
@@ -1395,7 +1395,7 @@
         <v>8</v>
       </c>
       <c r="P9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -2686,7 +2686,7 @@
         <v>5</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -2704,7 +2704,7 @@
         <v>8</v>
       </c>
       <c r="P26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -2858,13 +2858,13 @@
         <v>8</v>
       </c>
       <c r="P28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q28">
         <v>5</v>
       </c>
       <c r="R28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S28">
         <v>7</v>
@@ -2917,7 +2917,7 @@
         <v>5</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K29">
         <v>5</v>
@@ -2935,7 +2935,7 @@
         <v>7</v>
       </c>
       <c r="P29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -3754,13 +3754,13 @@
         <v>11.76</v>
       </c>
       <c r="H5">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3834,7 +3834,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3862,46 +3862,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>18330051920219</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>18330051920227</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3940,47 +3900,47 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>18330051920219</v>
+        <v>18330051920192</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18330051920227</v>
+        <v>18330051920193</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920192</v>
+        <v>18330051920194</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
         <v>123</v>
@@ -3991,10 +3951,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920193</v>
+        <v>18330051920087</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>97</v>
@@ -4008,13 +3968,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920194</v>
+        <v>18330051920196</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
         <v>125</v>
@@ -4025,13 +3985,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920087</v>
+        <v>18330051920197</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
         <v>126</v>
@@ -4042,13 +4002,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920196</v>
+        <v>18330051920200</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
         <v>127</v>
@@ -4059,13 +4019,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920197</v>
+        <v>18330051920201</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
         <v>128</v>
@@ -4076,16 +4036,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920200</v>
+        <v>18330051920204</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4093,16 +4053,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920201</v>
+        <v>18330051920203</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4110,13 +4070,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920204</v>
+        <v>18330051920094</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
         <v>130</v>
@@ -4127,13 +4087,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920203</v>
+        <v>18330051920209</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
         <v>131</v>
@@ -4144,13 +4104,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920094</v>
+        <v>18330051920210</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
         <v>132</v>
@@ -4161,13 +4121,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920209</v>
+        <v>18330051920205</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
         <v>133</v>
@@ -4178,13 +4138,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920210</v>
+        <v>18330051920211</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
         <v>134</v>
@@ -4195,13 +4155,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920205</v>
+        <v>18330051920212</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
         <v>135</v>
@@ -4212,13 +4172,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920211</v>
+        <v>18330051920213</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
         <v>136</v>
@@ -4229,13 +4189,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920212</v>
+        <v>18330051920215</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
         <v>137</v>
@@ -4246,13 +4206,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920213</v>
+        <v>18330051920214</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
         <v>138</v>
@@ -4263,13 +4223,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920215</v>
+        <v>18330051920216</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
         <v>139</v>
@@ -4280,13 +4240,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920214</v>
+        <v>18330051920218</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
         <v>140</v>
@@ -4297,13 +4257,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920216</v>
+        <v>18330051920217</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
         <v>141</v>
@@ -4314,13 +4274,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920218</v>
+        <v>18330051920219</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
         <v>142</v>
@@ -4331,13 +4291,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920217</v>
+        <v>18330051920223</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
         <v>143</v>
@@ -4348,13 +4308,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920223</v>
+        <v>18330051920225</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
         <v>144</v>
@@ -4365,13 +4325,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18330051920225</v>
+        <v>18330051920227</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
         <v>145</v>
@@ -4385,10 +4345,10 @@
         <v>18330051920229</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
         <v>146</v>
@@ -4402,10 +4362,10 @@
         <v>18330051920230</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
         <v>147</v>
@@ -4419,10 +4379,10 @@
         <v>18330051920231</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
         <v>148</v>
@@ -4436,10 +4396,10 @@
         <v>18330051920232</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
         <v>149</v>
@@ -4453,10 +4413,10 @@
         <v>18330051920186</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
         <v>150</v>
@@ -4470,10 +4430,10 @@
         <v>18330051920233</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
         <v>151</v>
@@ -4487,10 +4447,10 @@
         <v>18330051920137</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
         <v>152</v>
@@ -4504,10 +4464,10 @@
         <v>18330051920234</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
         <v>153</v>
@@ -4561,13 +4521,13 @@
         <v>18330051920094</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/grupos/6ARHM - Estadisticos 20202.xlsx
+++ b/grupos/6ARHM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="154">
   <si>
     <t>Materia</t>
   </si>
@@ -185,22 +185,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Morales Vallejo Jorge Luis</t>
+  </si>
+  <si>
     <t>Velasco Sánchez David</t>
   </si>
   <si>
+    <t>Duran Amezcua María Angélica</t>
+  </si>
+  <si>
     <t>Castro Vasquez Julieta</t>
   </si>
   <si>
+    <t>Ochoa Martínez Mayeli</t>
+  </si>
+  <si>
     <t>Martínez López Miguel Ángel</t>
-  </si>
-  <si>
-    <t>Morales Vallejo Jorge Luis</t>
-  </si>
-  <si>
-    <t>Ochoa Martínez Mayeli</t>
-  </si>
-  <si>
-    <t>Duran Amezcua María Angélica</t>
   </si>
   <si>
     <t>NC</t>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -3646,19 +3646,19 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>79.41</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="G2">
-        <v>20.59</v>
+        <v>11.76</v>
       </c>
       <c r="H2">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -3678,16 +3678,16 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>82.34999999999999</v>
+        <v>94.12</v>
       </c>
       <c r="G3">
-        <v>17.65</v>
+        <v>5.88</v>
       </c>
       <c r="H3">
         <v>8.199999999999999</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -3710,19 +3710,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>85.29000000000001</v>
+        <v>97.06</v>
       </c>
       <c r="G4">
-        <v>14.71</v>
+        <v>2.94</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -3742,19 +3742,19 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>88.23999999999999</v>
+        <v>97.06</v>
       </c>
       <c r="G5">
-        <v>11.76</v>
+        <v>2.94</v>
       </c>
       <c r="H5">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3774,19 +3774,19 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>88.23999999999999</v>
+        <v>97.06</v>
       </c>
       <c r="G6">
-        <v>11.76</v>
+        <v>2.94</v>
       </c>
       <c r="H6">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -3806,19 +3806,19 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>91.18000000000001</v>
+        <v>97.06</v>
       </c>
       <c r="G7">
-        <v>8.82</v>
+        <v>2.94</v>
       </c>
       <c r="H7">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4483,7 +4483,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4513,29 +4513,98 @@
         <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920094</v>
+        <v>18330051920225</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
       </c>
       <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920225</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
     </row>
